--- a/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="177">
   <si>
     <t>土地坐落</t>
   </si>
@@ -386,6 +386,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>世紀民生科技股份有限公 司</t>
   </si>
   <si>
@@ -417,6 +426,9 @@
   </si>
   <si>
     <t>.2,000,000</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2512,13 +2524,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
@@ -2537,13 +2549,22 @@
       <c r="G1" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
@@ -2560,13 +2581,22 @@
       <c r="G2" s="2">
         <v>126170</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
@@ -2583,13 +2613,22 @@
       <c r="G3" s="2">
         <v>674630</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
@@ -2606,13 +2645,22 @@
       <c r="G4" s="2">
         <v>630750</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
@@ -2629,13 +2677,22 @@
       <c r="G5" s="2">
         <v>446610</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>54</v>
@@ -2652,13 +2709,22 @@
       <c r="G6" s="2">
         <v>127230</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>54</v>
@@ -2673,15 +2739,24 @@
         <v>112</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>134</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>54</v>
@@ -2698,13 +2773,22 @@
       <c r="G8" s="2">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>54</v>
@@ -2721,13 +2805,22 @@
       <c r="G9" s="2">
         <v>267560</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>54</v>
@@ -2744,13 +2837,22 @@
       <c r="G10" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>54</v>
@@ -2766,6 +2868,15 @@
       </c>
       <c r="G11" s="2">
         <v>14990</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1638</v>
       </c>
     </row>
   </sheetData>
@@ -2783,22 +2894,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>103</v>
@@ -2809,13 +2920,13 @@
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2">
         <v>150000</v>
@@ -2845,22 +2956,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2868,14 +2979,14 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2885,22 +2996,22 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2918,16 +3029,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2935,16 +3046,16 @@
         <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2952,16 +3063,16 @@
         <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2982,19 +3093,19 @@
         <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3002,22 +3113,22 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2">
         <v>20000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3025,22 +3136,22 @@
         <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2">
         <v>47500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="179">
   <si>
     <t>土地坐落</t>
   </si>
@@ -386,6 +386,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -395,7 +398,7 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>世紀民生科技股份有限公 司</t>
+    <t>世紀民生科技股份有限公司</t>
   </si>
   <si>
     <t>華新麗華股份有限公司</t>
@@ -422,10 +425,13 @@
     <t>國巨股份有限公司</t>
   </si>
   <si>
-    <t>華泰商業銀行股份有限公 司</t>
-  </si>
-  <si>
-    <t>.2,000,000</t>
+    <t>華泰商業銀行股份有限公司</t>
+  </si>
+  <si>
+    <t>.2000000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-21</t>
@@ -2524,13 +2530,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
@@ -2558,13 +2564,16 @@
       <c r="J1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
@@ -2582,21 +2591,24 @@
         <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="2">
+        <v>137</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
@@ -2614,21 +2626,24 @@
         <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="2">
+        <v>137</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
@@ -2646,21 +2661,24 @@
         <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="2">
+        <v>137</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
@@ -2678,21 +2696,24 @@
         <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="2">
+        <v>137</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>54</v>
@@ -2710,21 +2731,24 @@
         <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="2">
+        <v>137</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>54</v>
@@ -2739,24 +2763,27 @@
         <v>112</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="2">
+        <v>137</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>54</v>
@@ -2774,21 +2801,24 @@
         <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="2">
+        <v>137</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>54</v>
@@ -2806,21 +2836,24 @@
         <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="2">
+        <v>137</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>54</v>
@@ -2838,21 +2871,24 @@
         <v>300000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="2">
+        <v>137</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>54</v>
@@ -2870,12 +2906,15 @@
         <v>14990</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="2">
+        <v>137</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="2">
         <v>1638</v>
       </c>
     </row>
@@ -2894,22 +2933,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>103</v>
@@ -2920,13 +2959,13 @@
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2">
         <v>150000</v>
@@ -2956,22 +2995,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2979,14 +3018,14 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2996,22 +3035,22 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3029,16 +3068,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3046,16 +3085,16 @@
         <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3063,16 +3102,16 @@
         <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3093,19 +3132,19 @@
         <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3113,22 +3152,22 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E2" s="2">
         <v>20000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3136,22 +3175,22 @@
         <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2">
         <v>47500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="184">
   <si>
     <t>土地坐落</t>
   </si>
@@ -389,6 +389,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -398,6 +401,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>世紀民生科技股份有限公司</t>
   </si>
   <si>
@@ -434,7 +443,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpa0031</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2530,13 +2545,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
@@ -2567,13 +2582,22 @@
       <c r="K1" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
@@ -2591,24 +2615,33 @@
         <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="2">
+        <v>141</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
@@ -2626,24 +2659,33 @@
         <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="2">
+        <v>141</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
@@ -2661,24 +2703,33 @@
         <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="2">
+        <v>141</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
@@ -2696,24 +2747,33 @@
         <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="2">
+        <v>141</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>54</v>
@@ -2731,24 +2791,33 @@
         <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="2">
+        <v>141</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>54</v>
@@ -2763,27 +2832,36 @@
         <v>112</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="2">
+        <v>141</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N7" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>54</v>
@@ -2801,24 +2879,33 @@
         <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="2">
+        <v>141</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>54</v>
@@ -2836,24 +2923,33 @@
         <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="2">
+        <v>141</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>54</v>
@@ -2871,24 +2967,33 @@
         <v>300000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="2">
+        <v>141</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="2">
         <v>1638</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>54</v>
@@ -2906,16 +3011,25 @@
         <v>14990</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="2">
         <v>1638</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="2">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2933,22 +3047,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>103</v>
@@ -2959,13 +3073,13 @@
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2">
         <v>150000</v>
@@ -2995,22 +3109,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3018,14 +3132,14 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3035,22 +3149,22 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3068,16 +3182,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3085,16 +3199,16 @@
         <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3102,16 +3216,16 @@
         <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3132,19 +3246,19 @@
         <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3152,22 +3266,22 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E2" s="2">
         <v>20000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3175,22 +3289,22 @@
         <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2">
         <v>47500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
@@ -21,9 +21,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="184">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="189">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤內小段00780004地號</t>
+  </si>
+  <si>
+    <t>新北市新店區中央段00850000地號</t>
+  </si>
+  <si>
+    <t>新北市金山區中角段大水堀小段00400000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段段社後頂小段03020036地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港口小段02360234地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港口小段02360235地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港口小段02360236地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港□小段02580000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港□小段02720000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港口小段02360237地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港□小段02550000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港口小段02590000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區西松段一小段07650000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段06240000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段06250000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段三小段01700000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段三小段02210000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段三小段02210001地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段三小段02300000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段四小段02840000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段四小段02900000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段四小段02960000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段五小段00010000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段五小段00020000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段07670000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段07670001地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段07680000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段07720000地號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段00720001地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區景美段五小段01270000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區至善段二小段01380000地號</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>100000之3240</t>
+  </si>
+  <si>
+    <t>100000之291</t>
+  </si>
+  <si>
+    <t>100000之11111</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000之374</t>
+  </si>
+  <si>
+    <t>100000之250</t>
+  </si>
+  <si>
+    <t>100000之245</t>
+  </si>
+  <si>
+    <t>100000之205</t>
+  </si>
+  <si>
+    <t>100000之33333</t>
+  </si>
+  <si>
+    <t>100000之10</t>
+  </si>
+  <si>
+    <t>100000之1480</t>
+  </si>
+  <si>
+    <t>100000之3570</t>
+  </si>
+  <si>
+    <t>100000之5769</t>
+  </si>
+  <si>
+    <t>100000之7692</t>
+  </si>
+  <si>
+    <t>100000之1538</t>
+  </si>
+  <si>
+    <t>羅淑蕾</t>
+  </si>
+  <si>
+    <t>87年03月28日</t>
+  </si>
+  <si>
+    <t>96年01月05日</t>
+  </si>
+  <si>
+    <t>90年02月20日</t>
+  </si>
+  <si>
+    <t>68年05月30日</t>
+  </si>
+  <si>
+    <t>68年01月20日</t>
+  </si>
+  <si>
+    <t>91年10月20日</t>
+  </si>
+  <si>
+    <t>82年05月17日</t>
+  </si>
+  <si>
+    <t>91年08月20日</t>
+  </si>
+  <si>
+    <t>89年09月22日</t>
+  </si>
+  <si>
+    <t>98年04月07日</t>
+  </si>
+  <si>
+    <t>98年06月12日</t>
+  </si>
+  <si>
+    <t>100年04月11曰</t>
+  </si>
+  <si>
+    <t>買賈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>(買賣與建物合購）</t>
+  </si>
+  <si>
+    <t>(買責與建物合購）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝开年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpa0031</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,247 +302,40 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市深坑區坑子段新埤內小 段0078-0004地號</t>
-  </si>
-  <si>
-    <t>新北市新店區中央段0085-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市金山區中角段大水堀小 段0040-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段段社後頂 小段0302-0036地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 口小段0236-0234地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 口小段0236-0235地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 口小段0236-0236地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 □小段0258-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 □小段0272-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 口小段0236-0237地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 □小段0255-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 口小段0259-0000地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區西松段一小段</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段 0624-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段 0625-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段三小段 0170-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段三小段 0221-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段三小段 0221-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段三小段 0230-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段四小段 0284-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段四小段 0290-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段四小段 0296-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段五小段 0001-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段五小段 0002-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 0767-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 0767-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 0768-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 0772-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 0072-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區景美段五小段 0127-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區至善段二小段 0138-0000 地號</t>
-  </si>
-  <si>
-    <t>0.97 /</t>
-  </si>
-  <si>
-    <t>100000 之 3240</t>
-  </si>
-  <si>
-    <t>100000 之291</t>
-  </si>
-  <si>
-    <t>100000 之 11111</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000 之374</t>
-  </si>
-  <si>
-    <t>100000 之250</t>
-  </si>
-  <si>
-    <t>100000 之245</t>
-  </si>
-  <si>
-    <t>100000 之205</t>
-  </si>
-  <si>
-    <t>100000 之10</t>
-  </si>
-  <si>
-    <t>100000 之 1480</t>
-  </si>
-  <si>
-    <t>100000 之 3570</t>
-  </si>
-  <si>
-    <t>100000 之 5769</t>
-  </si>
-  <si>
-    <t>100000 之 7692</t>
-  </si>
-  <si>
-    <t>100000 之 1538</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>羅淑蕾</t>
-  </si>
-  <si>
-    <t>87年03月 28日</t>
-  </si>
-  <si>
-    <t>96年01月 05日</t>
-  </si>
-  <si>
-    <t>90年02月 20日</t>
-  </si>
-  <si>
-    <t>68年05月 30日</t>
-  </si>
-  <si>
-    <t>68年01月 20日</t>
-  </si>
-  <si>
-    <t>91年10月</t>
-  </si>
-  <si>
-    <t>82年05月 17日</t>
-  </si>
-  <si>
-    <t>91年08月 20日</t>
-  </si>
-  <si>
-    <t>89年09月 22日</t>
-  </si>
-  <si>
-    <t>98年04月 07日</t>
-  </si>
-  <si>
-    <t>98年06月 12日</t>
-  </si>
-  <si>
-    <t>100 年 04 月11曰</t>
-  </si>
-  <si>
-    <t>買賈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>(買賣與 建物合 購）</t>
-  </si>
-  <si>
-    <t>(買責與 建物合</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝开年)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段三小段 30248-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段三小段 03375-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段三小段 03381-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段 01342-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段 01317-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區延平段一小段 00395-000 建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港 口小段03323-000建號</t>
-  </si>
-  <si>
-    <t>新北市深坑區坑子段新埤内小 段03755-000建號</t>
-  </si>
-  <si>
-    <t>新北市深坑區坑子段新埤內小 段03755-000建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段 00761-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區景美段五小段 00071-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區至善段二小段 20049-000 建號</t>
+    <t>臺北市士林區華岡段三小段30248000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段三小段03375000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段三小段03381000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01342000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01317000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區延平段一小段00395000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港口小段03323000建號</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤内小段03755000建號</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤內小段03755000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段00761000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區景美段五小段00071000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區至善段二小段20049000建號</t>
   </si>
   <si>
     <t>13分之1</t>
@@ -293,19 +344,19 @@
     <t>80分之4</t>
   </si>
   <si>
-    <t>10000分之 2054</t>
+    <t>10000分之2054</t>
   </si>
   <si>
     <t>200分之1</t>
   </si>
   <si>
-    <t>82年10月 18日</t>
-  </si>
-  <si>
-    <t>82年09月 04日</t>
-  </si>
-  <si>
-    <t>89年06月 06日</t>
+    <t>82年10月18日</t>
+  </si>
+  <si>
+    <t>82年09月04日</t>
+  </si>
+  <si>
+    <t>89年06月06日</t>
   </si>
   <si>
     <t>繼承</t>
@@ -314,7 +365,7 @@
     <t>賈賣</t>
   </si>
   <si>
-    <t>(買賣與 土地合 購）</t>
+    <t>(買賣與土地合購）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -368,12 +419,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -386,27 +431,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>世紀民生科技股份有限公司</t>
   </si>
   <si>
@@ -443,15 +467,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-21</t>
-  </si>
-  <si>
-    <t>tmpa0031</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -467,10 +482,10 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>聯博全球高收益 債券基金A股</t>
-  </si>
-  <si>
-    <t>8160371安泰商 業銀行民權分 行</t>
+    <t>聯博全球高收益債券基金A股</t>
+  </si>
+  <si>
+    <t>8160371安泰商業銀行民權分行</t>
   </si>
   <si>
     <t>名</t>
@@ -488,22 +503,22 @@
     <t>人</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字晝及事</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字晝及事</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -533,10 +548,10 @@
     <t>6年期步步高升15萬</t>
   </si>
   <si>
-    <t>保單號碼：6 3 2 8 7 4 4 6 .保障期間：9 5/6/8 至1 0 1/6/8.保額為3 0萬.台南/歸仁郵局.</t>
-  </si>
-  <si>
-    <t>保單號碼：6 3 2 8 7 4 6 7.保障期間：9 5/6/8 至1 0 1/6/8 .保額為1 5萬.台南/歸仁郵局</t>
+    <t>保單號碼：63287446.保障期間：9568至10168.保額為30萬.台南歸仁郵局.</t>
+  </si>
+  <si>
+    <t>保單號碼：63287467.保障期間：9568至10168.保額為15萬.台南歸仁郵局</t>
   </si>
   <si>
     <t>債權人</t>
@@ -560,16 +575,16 @@
     <t>—般借款</t>
   </si>
   <si>
-    <t>王國道 臺北市文山區興隆路</t>
-  </si>
-  <si>
-    <t>啟富建設有限公司 臺北市中山區建國北路2段 92號9樓</t>
-  </si>
-  <si>
-    <t>93年12月 01日</t>
-  </si>
-  <si>
-    <t>96年05月 01日</t>
+    <t>王國道臺北市文山區興隆路</t>
+  </si>
+  <si>
+    <t>啟富建設有限公司臺北市中山區建國北路2段92號9樓</t>
+  </si>
+  <si>
+    <t>93年12月01日</t>
+  </si>
+  <si>
+    <t>96年05月01日</t>
   </si>
   <si>
     <t>借款</t>
@@ -931,13 +946,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -947,959 +962,1589 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>319.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>12.44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2">
         <v>430000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>390.25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="2">
+        <v>75</v>
+      </c>
+      <c r="H4" s="2">
         <v>16050000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>5220</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>2.56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>0.09</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>4.13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>0.32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>2.45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>2.52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>1.46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>12.74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>5.74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>5.63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <v>8.99</v>
       </c>
-      <c r="D16" s="2">
-        <v>100000</v>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <v>0.01</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
         <v>19.75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>40.62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
         <v>35.39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
         <v>1.53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2">
         <v>89.2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>32.34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
         <v>4.46</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
         <v>4.18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O26" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
         <v>0.03</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" s="2">
         <v>18000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
         <v>42</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="2">
-        <v>18000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
-        <v>44</v>
-      </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O30" s="2">
         <v>42</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="2">
-        <v>18000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O31" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>44</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="2">
-        <v>18000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1">
-        <v>46</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" s="2">
         <v>18000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I33" s="2">
+        <v>78</v>
+      </c>
+      <c r="H33" s="2">
         <v>22000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2">
         <v>553</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" s="2">
         <v>40000000</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O34" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1917,48 +2562,48 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2">
         <v>12.8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2">
         <v>40000000</v>
@@ -1966,337 +2611,337 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2">
         <v>52.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2">
         <v>326.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2">
         <v>65.97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2">
         <v>99.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2">
         <v>48.54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2">
         <v>2.35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2">
         <v>127.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2">
         <v>127.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2">
         <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2">
         <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2">
         <v>115.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2">
         <v>116.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2">
         <v>154.92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="H15" s="2">
         <v>18000000</v>
@@ -2304,25 +2949,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2">
         <v>81.24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="H16" s="2">
         <v>22000000</v>
@@ -2330,25 +2975,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2">
         <v>395.64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="H17" s="2">
         <v>40000000</v>
@@ -2369,39 +3014,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -2410,19 +3055,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -2431,19 +3076,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -2452,19 +3097,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -2473,19 +3118,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2">
         <v>1751000</v>
@@ -2496,19 +3141,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2">
         <v>1042106</v>
@@ -2519,19 +3164,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2553,54 +3198,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2">
         <v>12617</v>
@@ -2609,42 +3254,42 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2">
         <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L2" s="2">
         <v>1638</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2">
         <v>67463</v>
@@ -2653,42 +3298,42 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2">
         <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L3" s="2">
         <v>1638</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
         <v>63075</v>
@@ -2697,42 +3342,42 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2">
         <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2">
         <v>1638</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N4" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2">
         <v>44661</v>
@@ -2741,42 +3386,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G5" s="2">
         <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L5" s="2">
         <v>1638</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2">
         <v>12723</v>
@@ -2785,42 +3430,42 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G6" s="2">
         <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L6" s="2">
         <v>1638</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2">
         <v>200000</v>
@@ -2829,42 +3474,42 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L7" s="2">
         <v>1638</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N7" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2">
         <v>500000</v>
@@ -2873,42 +3518,42 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2">
         <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L8" s="2">
         <v>1638</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N8" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2">
         <v>26756</v>
@@ -2917,42 +3562,42 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G9" s="2">
         <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L9" s="2">
         <v>1638</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N9" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2">
         <v>30000</v>
@@ -2961,42 +3606,42 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2">
         <v>300000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L10" s="2">
         <v>1638</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N10" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2">
         <v>1499</v>
@@ -3005,31 +3650,31 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G11" s="2">
         <v>14990</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L11" s="2">
         <v>1638</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="N11" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3047,39 +3692,39 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2">
         <v>150000</v>
@@ -3088,7 +3733,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H2" s="2">
         <v>1500000</v>
@@ -3109,62 +3754,62 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3182,50 +3827,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3243,68 +3888,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2">
         <v>20000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E3" s="2">
         <v>47500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="154">
   <si>
     <t>name</t>
   </si>
@@ -65,7 +65,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市深坑區坑子段新埤內小段00780004地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市新店區中央段00850000地號</t>
@@ -158,12 +161,6 @@
     <t>臺北市士林區至善段二小段01380000地號</t>
   </si>
   <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>100000之3240</t>
-  </si>
-  <si>
     <t>100000之291</t>
   </si>
   <si>
@@ -209,156 +206,132 @@
     <t>羅淑蕾</t>
   </si>
   <si>
+    <t>96年01月05日</t>
+  </si>
+  <si>
+    <t>90年02月20日</t>
+  </si>
+  <si>
+    <t>68年05月30日</t>
+  </si>
+  <si>
+    <t>68年01月20日</t>
+  </si>
+  <si>
+    <t>91年10月20日</t>
+  </si>
+  <si>
+    <t>82年05月17日</t>
+  </si>
+  <si>
+    <t>91年08月20日</t>
+  </si>
+  <si>
+    <t>89年09月22日</t>
+  </si>
+  <si>
+    <t>98年04月07日</t>
+  </si>
+  <si>
+    <t>98年06月12日</t>
+  </si>
+  <si>
+    <t>100年04月11曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>(買賣與建物合購）</t>
+  </si>
+  <si>
+    <t>(買責與建物合購）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝开年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpa0031</t>
+  </si>
+  <si>
+    <t>臺北市士林區華岡段三小段30248000建號</t>
+  </si>
+  <si>
+    <t>13分之1</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段三小段03375000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段三小段03381000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01342000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01317000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區延平段一小段00395000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港口小段03323000建號</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤内小段03755000建號</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤內小段03755000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段00761000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區景美段五小段00071000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區至善段二小段20049000建號</t>
+  </si>
+  <si>
+    <t>80分之4</t>
+  </si>
+  <si>
+    <t>10000分之2054</t>
+  </si>
+  <si>
+    <t>200分之1</t>
+  </si>
+  <si>
+    <t>82年10月18日</t>
+  </si>
+  <si>
+    <t>82年09月04日</t>
+  </si>
+  <si>
+    <t>89年06月06日</t>
+  </si>
+  <si>
     <t>87年03月28日</t>
   </si>
   <si>
-    <t>96年01月05日</t>
-  </si>
-  <si>
-    <t>90年02月20日</t>
-  </si>
-  <si>
-    <t>68年05月30日</t>
-  </si>
-  <si>
-    <t>68年01月20日</t>
-  </si>
-  <si>
-    <t>91年10月20日</t>
-  </si>
-  <si>
-    <t>82年05月17日</t>
-  </si>
-  <si>
-    <t>91年08月20日</t>
-  </si>
-  <si>
-    <t>89年09月22日</t>
-  </si>
-  <si>
-    <t>98年04月07日</t>
-  </si>
-  <si>
-    <t>98年06月12日</t>
-  </si>
-  <si>
-    <t>100年04月11曰</t>
-  </si>
-  <si>
-    <t>買賈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>(買賣與建物合購）</t>
-  </si>
-  <si>
-    <t>(買責與建物合購）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝开年)</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-21</t>
-  </si>
-  <si>
-    <t>tmpa0031</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市士林區華岡段三小段30248000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段三小段03375000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段三小段03381000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段01342000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段01317000建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區延平段一小段00395000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港口小段03323000建號</t>
-  </si>
-  <si>
-    <t>新北市深坑區坑子段新埤内小段03755000建號</t>
-  </si>
-  <si>
-    <t>新北市深坑區坑子段新埤內小段03755000建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段00761000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區景美段五小段00071000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區至善段二小段20049000建號</t>
-  </si>
-  <si>
-    <t>13分之1</t>
-  </si>
-  <si>
-    <t>80分之4</t>
-  </si>
-  <si>
-    <t>10000分之2054</t>
-  </si>
-  <si>
-    <t>200分之1</t>
-  </si>
-  <si>
-    <t>82年10月18日</t>
-  </si>
-  <si>
-    <t>82年09月04日</t>
-  </si>
-  <si>
-    <t>89年06月06日</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -368,226 +341,148 @@
     <t>(買賣與土地合購）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>華泰商業銀行</t>
+  </si>
+  <si>
+    <t>中國銀行</t>
+  </si>
+  <si>
+    <t>美商美國銀行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>人民幣</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>華新麗華股份有限公司</t>
+  </si>
+  <si>
+    <t>技嘉科技股份有限公司</t>
+  </si>
+  <si>
+    <t>聯華電子股份有限公司</t>
+  </si>
+  <si>
+    <t>華碩電腦股份有限公司</t>
+  </si>
+  <si>
+    <t>鍊德科技股份有限公司</t>
+  </si>
+  <si>
+    <t>千附實業股份有限公司</t>
+  </si>
+  <si>
+    <t>旺宏電子股份有限公司</t>
+  </si>
+  <si>
+    <t>國巨股份有限公司</t>
+  </si>
+  <si>
+    <t>華泰商業銀行股份有限公司</t>
+  </si>
+  <si>
+    <t>.2000000</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>聯博全球高收益債券基金A股</t>
+  </si>
+  <si>
+    <t>8160371安泰商業銀行民權分行</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字晝及事</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>華泰商業銀行</t>
-  </si>
-  <si>
-    <t>中國銀行</t>
-  </si>
-  <si>
-    <t>美商美國銀行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>人民幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>世紀民生科技股份有限公司</t>
-  </si>
-  <si>
-    <t>華新麗華股份有限公司</t>
-  </si>
-  <si>
-    <t>技嘉科技股份有限公司</t>
-  </si>
-  <si>
-    <t>聯華電子股份有限公司</t>
-  </si>
-  <si>
-    <t>華碩電腦股份有限公司</t>
-  </si>
-  <si>
-    <t>鍊德科技股份有限公司</t>
-  </si>
-  <si>
-    <t>千附實業股份有限公司</t>
-  </si>
-  <si>
-    <t>旺宏電子股份有限公司</t>
-  </si>
-  <si>
-    <t>國巨股份有限公司</t>
-  </si>
-  <si>
-    <t>華泰商業銀行股份有限公司</t>
-  </si>
-  <si>
-    <t>.2000000</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>聯博全球高收益債券基金A股</t>
-  </si>
-  <si>
-    <t>8160371安泰商業銀行民權分行</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及事</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>中華郵政</t>
   </si>
   <si>
     <t>6年期步步高升30萬</t>
   </si>
   <si>
+    <t>保單號碼：63287446.保障期間：9568至10168.保額為30萬.台南歸仁郵局.</t>
+  </si>
+  <si>
     <t>6年期步步高升15萬</t>
   </si>
   <si>
-    <t>保單號碼：63287446.保障期間：9568至10168.保額為30萬.台南歸仁郵局.</t>
-  </si>
-  <si>
     <t>保單號碼：63287467.保障期間：9568至10168.保額為15萬.台南歸仁郵局</t>
   </si>
   <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>設定抵押</t>
   </si>
   <si>
+    <t>王國道臺北市文山區興隆路</t>
+  </si>
+  <si>
+    <t>93年12月01日</t>
+  </si>
+  <si>
+    <t>借款</t>
+  </si>
+  <si>
     <t>—般借款</t>
   </si>
   <si>
-    <t>王國道臺北市文山區興隆路</t>
-  </si>
-  <si>
     <t>啟富建設有限公司臺北市中山區建國北路2段92號9樓</t>
   </si>
   <si>
-    <t>93年12月01日</t>
-  </si>
-  <si>
     <t>96年05月01日</t>
-  </si>
-  <si>
-    <t>借款</t>
   </si>
 </sst>
 </file>
@@ -946,13 +841,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,1556 +890,1707 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>319.1</v>
+        <v>12.44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="H2" s="2">
+        <v>430000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" s="2">
         <v>1638</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00291</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.0362004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>12.44</v>
+        <v>390.25</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2">
-        <v>430000</v>
+        <v>16050000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M3" s="2">
         <v>1638</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.11111</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>43.3606775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>390.25</v>
+        <v>5220</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>16050000</v>
+        <v>72</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2">
         <v>1638</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>5220</v>
+        <v>2.56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.0095744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" s="2">
         <v>1638</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.0003366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>0.09</v>
+        <v>4.13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M7" s="2">
         <v>1638</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.0154462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>4.13</v>
+        <v>0.32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2">
         <v>1638</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0025</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>0.32</v>
+        <v>2.45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2">
         <v>1638</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.00245</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.0060025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.0094248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.0054604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12.74</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.0476476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12.74</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M13" s="2">
         <v>1638</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.00205</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.011767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C14" s="2">
-        <v>5.74</v>
+        <v>5.63</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.00374</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.0210562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8.99</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5.63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="2">
         <v>1638</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.33333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2.9966367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" s="2">
-        <v>8.99</v>
+        <v>0.01</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M16" s="2">
         <v>1638</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1e-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" s="2">
-        <v>0.01</v>
+        <v>19.75</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M17" s="2">
         <v>1638</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O17" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0148</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.2923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C18" s="2">
-        <v>19.75</v>
+        <v>40.62</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M18" s="2">
         <v>1638</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O18" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.0357</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1.450134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C19" s="2">
-        <v>40.62</v>
+        <v>35.39</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M19" s="2">
         <v>1638</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O19" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.05769</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2.0416491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C20" s="2">
-        <v>35.39</v>
+        <v>0.97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M20" s="2">
         <v>1638</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O20" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.05769</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.0559593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
+      <c r="C21" s="2">
+        <v>1.53</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="2">
         <v>1638</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O21" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.07692</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.1176876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C22" s="2">
-        <v>1.53</v>
+        <v>89.2</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M22" s="2">
         <v>1638</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O22" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.01538</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1.371896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C23" s="2">
-        <v>89.2</v>
+        <v>32.34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M23" s="2">
         <v>1638</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O23" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.01538</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.4973892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C24" s="2">
-        <v>32.34</v>
+        <v>4.46</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M24" s="2">
         <v>1638</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O24" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.01538</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.0685948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C25" s="2">
-        <v>4.46</v>
+        <v>4.18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M25" s="2">
         <v>1638</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O25" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.01538</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.0642884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C26" s="2">
-        <v>4.18</v>
+        <v>0.03</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M26" s="2">
         <v>1638</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O26" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.01538</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.0004614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C27" s="2">
-        <v>0.03</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="H27" s="2">
+        <v>18000000</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="2">
         <v>1638</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C28" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H28" s="2">
         <v>18000000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M28" s="2">
         <v>1638</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O28" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H29" s="2">
         <v>18000000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M29" s="2">
         <v>1638</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O29" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
+        <v>43</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C30" s="2">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H30" s="2">
         <v>18000000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M30" s="2">
         <v>1638</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O30" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C31" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H31" s="2">
         <v>18000000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M31" s="2">
         <v>1638</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O31" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="2">
+        <v>22000000</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O32" s="2">
+        <v>45</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <v>553</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="2">
-        <v>18000000</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O32" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1">
-        <v>45</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="2">
-        <v>95</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H33" s="2">
-        <v>22000000</v>
+        <v>40000000</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="2">
         <v>1638</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O33" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1">
         <v>46</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
         <v>553</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" s="2">
-        <v>40000000</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O34" s="2">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2554,7 +2600,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2562,440 +2608,414 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="C1" s="1">
+        <v>12.8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+      <c r="H1" s="1">
+        <v>40000000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2">
-        <v>12.8</v>
+        <v>52.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="2">
-        <v>40000000</v>
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2">
-        <v>52.3</v>
+        <v>326.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2">
-        <v>326.3</v>
+        <v>65.97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2">
-        <v>65.97</v>
+        <v>99.8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2">
+        <v>48.54</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="2">
-        <v>99.8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="2">
-        <v>48.54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2">
-        <v>2.35</v>
+        <v>127.2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2">
         <v>127.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
-        <v>127.2</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2">
         <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2">
-        <v>147</v>
+        <v>115.5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2">
-        <v>115.5</v>
+        <v>116.1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2">
-        <v>116.1</v>
+        <v>154.92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
+      </c>
+      <c r="H14" s="2">
+        <v>18000000</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2">
-        <v>154.92</v>
+        <v>81.24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H15" s="2">
-        <v>18000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2">
-        <v>81.24</v>
+        <v>395.64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2">
-        <v>22000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>67</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="2">
-        <v>395.64</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="2">
         <v>40000000</v>
       </c>
     </row>
@@ -3006,7 +3026,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3014,172 +3034,149 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>6098718</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>6098718</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>161</v>
+        <v>29425</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>29425</v>
+        <v>59831</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1751000</v>
+      </c>
       <c r="G5" s="2">
-        <v>59831</v>
+        <v>7879500</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2">
-        <v>1751000</v>
+        <v>1042106</v>
       </c>
       <c r="G6" s="2">
-        <v>7879500</v>
+        <v>30533705.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1042106</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>30533705.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>96</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
         <v>1593775</v>
       </c>
     </row>
@@ -3190,7 +3187,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3204,16 +3201,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -3239,441 +3236,397 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>12617</v>
+        <v>67463</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2">
-        <v>126170</v>
+        <v>674630</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2">
         <v>1638</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
-        <v>67463</v>
+        <v>63075</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2">
-        <v>674630</v>
+        <v>630750</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2">
         <v>1638</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>63075</v>
+        <v>44661</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2">
-        <v>630750</v>
+        <v>446610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="2">
         <v>1638</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2">
-        <v>44661</v>
+        <v>12723</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G5" s="2">
-        <v>446610</v>
+        <v>127230</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5" s="2">
         <v>1638</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N5" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2">
-        <v>12723</v>
+        <v>200000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="2">
-        <v>127230</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6" s="2">
         <v>1638</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N6" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>146</v>
+        <v>108</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5000000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7" s="2">
         <v>1638</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2">
-        <v>500000</v>
+        <v>26756</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G8" s="2">
-        <v>5000000</v>
+        <v>267560</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="2">
         <v>1638</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N8" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2">
-        <v>26756</v>
+        <v>30000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G9" s="2">
-        <v>267560</v>
+        <v>300000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" s="2">
         <v>1638</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N9" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
-        <v>30000</v>
+        <v>1499</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G10" s="2">
-        <v>300000</v>
+        <v>14990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="2">
         <v>1638</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N10" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>113</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1499</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="2">
-        <v>14990</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="2">
         <v>113</v>
       </c>
     </row>
@@ -3684,58 +3637,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="E1" s="1">
+        <v>150000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>123</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="2">
-        <v>150000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="2">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1">
         <v>1500000</v>
       </c>
     </row>
@@ -3746,7 +3673,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3754,62 +3681,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>130</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>167</v>
+        <v>139</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3723,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3827,50 +3731,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3880,7 +3767,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3888,68 +3775,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2">
-        <v>20000000</v>
+        <v>47500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>143</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="2">
-        <v>47500000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="158">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市深坑區坑子段新埤內小段00780004地號</t>
+  </si>
+  <si>
     <t>新北市新店區中央段00850000地號</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
     <t>臺北市士林區至善段二小段01380000地號</t>
   </si>
   <si>
+    <t>100000之3240</t>
+  </si>
+  <si>
     <t>100000之291</t>
   </si>
   <si>
@@ -206,6 +212,9 @@
     <t>羅淑蕾</t>
   </si>
   <si>
+    <t>87年03月28日</t>
+  </si>
+  <si>
     <t>96年01月05日</t>
   </si>
   <si>
@@ -239,6 +248,9 @@
     <t>100年04月11曰</t>
   </si>
   <si>
+    <t>買賈</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -275,42 +287,42 @@
     <t>臺北市士林區華岡段三小段30248000建號</t>
   </si>
   <si>
+    <t>臺北市中山區吉林段三小段03375000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段三小段03381000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01342000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段四小段01317000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區延平段一小段00395000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區叭噠港段叭噠港口小段03323000建號</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤内小段03755000建號</t>
+  </si>
+  <si>
+    <t>新北市深坑區坑子段新埤內小段03755000建號</t>
+  </si>
+  <si>
+    <t>臺北市萬華區漢中段三小段00761000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區景美段五小段00071000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區至善段二小段20049000建號</t>
+  </si>
+  <si>
     <t>13分之1</t>
   </si>
   <si>
-    <t>臺北市中山區吉林段三小段03375000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段三小段03381000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段01342000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段四小段01317000建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區延平段一小段00395000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區叭噠港段叭噠港口小段03323000建號</t>
-  </si>
-  <si>
-    <t>新北市深坑區坑子段新埤内小段03755000建號</t>
-  </si>
-  <si>
-    <t>新北市深坑區坑子段新埤內小段03755000建號</t>
-  </si>
-  <si>
-    <t>臺北市萬華區漢中段三小段00761000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區景美段五小段00071000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區至善段二小段20049000建號</t>
-  </si>
-  <si>
     <t>80分之4</t>
   </si>
   <si>
@@ -329,9 +341,6 @@
     <t>89年06月06日</t>
   </si>
   <si>
-    <t>87年03月28日</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -381,6 +390,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>世紀民生科技股份有限公司</t>
   </si>
   <si>
     <t>華新麗華股份有限公司</t>
@@ -841,7 +853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -899,1697 +911,1750 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>12.44</v>
+        <v>319.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="2">
-        <v>430000</v>
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M2" s="2">
         <v>1638</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00291</v>
+        <v>0.0324</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.0362004</v>
+        <v>10.33884</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>390.25</v>
+        <v>12.44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2">
-        <v>16050000</v>
+        <v>430000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" s="2">
         <v>1638</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.11111</v>
+        <v>0.00291</v>
       </c>
       <c r="Q3" s="2">
-        <v>43.3606775</v>
+        <v>0.0362004</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>5220</v>
+        <v>390.25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16050000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M4" s="2">
         <v>1638</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.11111</v>
       </c>
       <c r="Q4" s="2">
-        <v>5220</v>
+        <v>43.3606775</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>2.56</v>
+        <v>5220</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5" s="2">
         <v>1638</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.00374</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.0095744</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>0.09</v>
+        <v>2.56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6" s="2">
         <v>1638</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.00374</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.0003366</v>
+        <v>0.0095744</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>4.13</v>
+        <v>0.09</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M7" s="2">
         <v>1638</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.00374</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.0154462</v>
+        <v>0.0003366</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>0.32</v>
+        <v>4.13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M8" s="2">
         <v>1638</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0025</v>
+        <v>0.00374</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.0008</v>
+        <v>0.0154462</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>2.45</v>
+        <v>0.32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2">
         <v>1638</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>0.00245</v>
+        <v>0.0025</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.0060025</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M10" s="2">
         <v>1638</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>0.00374</v>
+        <v>0.00245</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.0094248</v>
+        <v>0.0060025</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M11" s="2">
         <v>1638</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.00374</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.0054604</v>
+        <v>0.0094248</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>12.74</v>
+        <v>1.46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M12" s="2">
         <v>1638</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.00374</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.0476476</v>
+        <v>0.0054604</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>5.74</v>
+        <v>12.74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M13" s="2">
         <v>1638</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>0.00205</v>
+        <v>0.00374</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.011767</v>
+        <v>0.0476476</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="2">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
-        <v>5.63</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1638</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="2">
-        <v>27</v>
-      </c>
       <c r="P14" s="2">
-        <v>0.00374</v>
+        <v>0.00205</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.0210562</v>
+        <v>0.011767</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>8.99</v>
+        <v>5.63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M15" s="2">
         <v>1638</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.33333</v>
+        <v>0.00374</v>
       </c>
       <c r="Q15" s="2">
-        <v>2.9966367</v>
+        <v>0.0210562</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>0.01</v>
+        <v>8.99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M16" s="2">
         <v>1638</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0001</v>
+        <v>0.33333</v>
       </c>
       <c r="Q16" s="2">
-        <v>1e-06</v>
+        <v>2.9966367</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="2">
-        <v>19.75</v>
+        <v>0.01</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M17" s="2">
         <v>1638</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
-        <v>0.0148</v>
+        <v>0.0001</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.2923</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="2">
-        <v>40.62</v>
+        <v>19.75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M18" s="2">
         <v>1638</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0357</v>
+        <v>0.0148</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.450134</v>
+        <v>0.2923</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="2">
-        <v>35.39</v>
+        <v>40.62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M19" s="2">
         <v>1638</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2">
-        <v>0.05769</v>
+        <v>0.0357</v>
       </c>
       <c r="Q19" s="2">
-        <v>2.0416491</v>
+        <v>1.450134</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="2">
-        <v>0.97</v>
+        <v>35.39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M20" s="2">
         <v>1638</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2">
         <v>0.05769</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.0559593</v>
+        <v>2.0416491</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2">
-        <v>1.53</v>
+        <v>0.97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M21" s="2">
         <v>1638</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2">
-        <v>0.07692</v>
+        <v>0.05769</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.1176876</v>
+        <v>0.0559593</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="2">
-        <v>89.2</v>
+        <v>1.53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M22" s="2">
         <v>1638</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P22" s="2">
-        <v>0.01538</v>
+        <v>0.07692</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.371896</v>
+        <v>0.1176876</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="2">
-        <v>32.34</v>
+        <v>89.2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M23" s="2">
         <v>1638</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="2">
         <v>0.01538</v>
       </c>
       <c r="Q23" s="2">
-        <v>0.4973892</v>
+        <v>1.371896</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="2">
-        <v>4.46</v>
+        <v>32.34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M24" s="2">
         <v>1638</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P24" s="2">
         <v>0.01538</v>
       </c>
       <c r="Q24" s="2">
-        <v>0.0685948</v>
+        <v>0.4973892</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="2">
-        <v>4.18</v>
+        <v>4.46</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M25" s="2">
         <v>1638</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" s="2">
         <v>0.01538</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.0642884</v>
+        <v>0.0685948</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="2">
-        <v>0.03</v>
+        <v>4.18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M26" s="2">
         <v>1638</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O26" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" s="2">
         <v>0.01538</v>
       </c>
       <c r="Q26" s="2">
-        <v>0.0004614</v>
+        <v>0.0642884</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="2">
-        <v>17</v>
+        <v>0.03</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="2">
-        <v>18000000</v>
+        <v>78</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M27" s="2">
         <v>1638</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="2">
-        <v>1</v>
+        <v>0.01538</v>
       </c>
       <c r="Q27" s="2">
-        <v>17</v>
+        <v>0.0004614</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H28" s="2">
         <v>18000000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M28" s="2">
         <v>1638</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O28" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
       </c>
       <c r="Q28" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="2">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H29" s="2">
         <v>18000000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M29" s="2">
         <v>1638</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O29" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" s="2">
         <v>1</v>
       </c>
       <c r="Q29" s="2">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2">
         <v>18000000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M30" s="2">
         <v>1638</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O30" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" s="2">
         <v>1</v>
       </c>
       <c r="Q30" s="2">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H31" s="2">
         <v>18000000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M31" s="2">
         <v>1638</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O31" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" s="2">
         <v>1</v>
       </c>
       <c r="Q31" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="2">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H32" s="2">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M32" s="2">
         <v>1638</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O32" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P32" s="2">
         <v>1</v>
       </c>
       <c r="Q32" s="2">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="2">
-        <v>553</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H33" s="2">
-        <v>40000000</v>
+        <v>22000000</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M33" s="2">
         <v>1638</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O33" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2">
         <v>1</v>
       </c>
       <c r="Q33" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="2">
+        <v>553</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O34" s="2">
+        <v>46</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
         <v>553</v>
       </c>
     </row>
@@ -2600,423 +2665,908 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2">
         <v>12.8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="I2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="2">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.984615384615385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2">
         <v>52.3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="2">
+        <v>53</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2">
+        <v>326.3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="2">
+        <v>54</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>326.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2">
+        <v>65.97</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="2">
+        <v>55</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3.2985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2">
+        <v>99.8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="2">
+        <v>56</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2">
+        <v>48.54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="2">
+        <v>57</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.2054</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>9.970116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>54</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2">
-        <v>326.3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>55</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="2">
-        <v>65.97</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>56</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="2">
-        <v>99.8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="2">
-        <v>48.54</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="2">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="P8" s="2">
+        <v>0.005</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.01175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>59</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="2">
-        <v>127.2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>60</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2">
         <v>127.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="2">
+        <v>59</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
         <v>60</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2">
+        <v>127.2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="2">
+        <v>60</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>61</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="2">
-        <v>147</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>62</v>
-      </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2">
         <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="2">
+        <v>61</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2">
+        <v>147</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="2">
+        <v>62</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2">
+        <v>115.5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="2">
+        <v>63</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="2">
+        <v>116.1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="2">
+        <v>64</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2">
+        <v>154.92</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>63</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="2">
-        <v>115.5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="2">
-        <v>116.1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
+      <c r="G15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="2">
         <v>65</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
         <v>154.92</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="2">
-        <v>18000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
         <v>66</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="2">
         <v>81.24</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="2">
         <v>22000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
+      <c r="I16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="2">
+        <v>66</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>81.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
         <v>67</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2">
         <v>395.64</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="2">
         <v>40000000</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="2">
+        <v>67</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>395.64</v>
       </c>
     </row>
   </sheetData>
@@ -3026,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3034,16 +3584,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -3052,131 +3602,152 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>161</v>
+        <v>6098718</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>29425</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>59831</v>
+        <v>29425</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1751000</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>7879500</v>
+        <v>59831</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2">
-        <v>1042106</v>
+        <v>1751000</v>
       </c>
       <c r="G6" s="2">
-        <v>30533705.8</v>
+        <v>7879500</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>95</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1042106</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30533705.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>96</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>1593775</v>
       </c>
     </row>
@@ -3187,7 +3758,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3201,13 +3772,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3236,397 +3807,441 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2">
-        <v>67463</v>
+        <v>12617</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2">
-        <v>674630</v>
+        <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2">
         <v>1638</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N2" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2">
-        <v>63075</v>
+        <v>67463</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2">
-        <v>630750</v>
+        <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2">
         <v>1638</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2">
-        <v>44661</v>
+        <v>63075</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2">
-        <v>446610</v>
+        <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" s="2">
         <v>1638</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N4" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
-        <v>12723</v>
+        <v>44661</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2">
-        <v>127230</v>
+        <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L5" s="2">
         <v>1638</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
-        <v>200000</v>
+        <v>12723</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
+      </c>
+      <c r="G6" s="2">
+        <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L6" s="2">
         <v>1638</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="2">
         <v>108</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="2">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2">
-        <v>26756</v>
+        <v>500000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G8" s="2">
-        <v>267560</v>
+        <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L8" s="2">
         <v>1638</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N8" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2">
-        <v>30000</v>
+        <v>26756</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G9" s="2">
-        <v>300000</v>
+        <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L9" s="2">
         <v>1638</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N9" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2">
-        <v>1499</v>
+        <v>30000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G10" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1499</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="2">
         <v>14990</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1638</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="H11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="2">
         <v>113</v>
       </c>
     </row>
@@ -3637,21 +4252,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1">
         <v>150000</v>
@@ -3660,9 +4275,35 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="2">
+        <v>150000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="2">
         <v>1500000</v>
       </c>
     </row>
@@ -3673,7 +4314,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3681,39 +4322,56 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>130</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>141</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3723,7 +4381,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3731,33 +4389,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>137</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3767,7 +4442,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3775,45 +4450,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1">
         <v>20000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E2" s="2">
-        <v>47500000</v>
+        <v>20000000</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>143</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="2">
+        <v>47500000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="159">
   <si>
     <t>name</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>(買賣與土地合購）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>安泰商業銀行</t>
@@ -2747,7 +2750,7 @@
         <v>40000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>84</v>
@@ -2800,7 +2803,7 @@
         <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>84</v>
@@ -2853,7 +2856,7 @@
         <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>84</v>
@@ -2906,7 +2909,7 @@
         <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>84</v>
@@ -2959,7 +2962,7 @@
         <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>84</v>
@@ -3012,7 +3015,7 @@
         <v>81</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>84</v>
@@ -3065,7 +3068,7 @@
         <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>84</v>
@@ -3118,7 +3121,7 @@
         <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>84</v>
@@ -3171,7 +3174,7 @@
         <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>84</v>
@@ -3224,7 +3227,7 @@
         <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>84</v>
@@ -3277,7 +3280,7 @@
         <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>84</v>
@@ -3330,7 +3333,7 @@
         <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>84</v>
@@ -3383,7 +3386,7 @@
         <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>84</v>
@@ -3436,7 +3439,7 @@
         <v>18000000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>84</v>
@@ -3489,7 +3492,7 @@
         <v>22000000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>84</v>
@@ -3542,7 +3545,7 @@
         <v>40000000</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>84</v>
@@ -3584,13 +3587,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>62</v>
@@ -3605,13 +3608,13 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>62</v>
@@ -3626,13 +3629,13 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>62</v>
@@ -3647,13 +3650,13 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>62</v>
@@ -3668,13 +3671,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>62</v>
@@ -3689,13 +3692,13 @@
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>62</v>
@@ -3712,13 +3715,13 @@
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>62</v>
@@ -3735,13 +3738,13 @@
         <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>62</v>
@@ -3772,13 +3775,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3810,7 +3813,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
@@ -3822,13 +3825,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2">
         <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>84</v>
@@ -3854,7 +3857,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>62</v>
@@ -3866,13 +3869,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2">
         <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>84</v>
@@ -3898,7 +3901,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>62</v>
@@ -3910,13 +3913,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2">
         <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>84</v>
@@ -3942,7 +3945,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -3954,13 +3957,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2">
         <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>84</v>
@@ -3986,7 +3989,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
@@ -3998,13 +4001,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2">
         <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>84</v>
@@ -4030,7 +4033,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>62</v>
@@ -4042,13 +4045,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>84</v>
@@ -4074,7 +4077,7 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
@@ -4086,13 +4089,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G8" s="2">
         <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>84</v>
@@ -4118,7 +4121,7 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>62</v>
@@ -4130,13 +4133,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G9" s="2">
         <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>84</v>
@@ -4162,7 +4165,7 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>62</v>
@@ -4174,13 +4177,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G10" s="2">
         <v>300000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>84</v>
@@ -4206,7 +4209,7 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>62</v>
@@ -4218,13 +4221,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G11" s="2">
         <v>14990</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>84</v>
@@ -4260,13 +4263,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1">
         <v>150000</v>
@@ -4275,7 +4278,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1">
         <v>1500000</v>
@@ -4286,13 +4289,13 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>150000</v>
@@ -4301,7 +4304,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2">
         <v>1500000</v>
@@ -4322,14 +4325,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4339,16 +4342,16 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4356,22 +4359,22 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4389,16 +4392,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4406,16 +4409,16 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4423,16 +4426,16 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4450,22 +4453,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1">
         <v>20000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4473,22 +4476,22 @@
         <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2">
         <v>20000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4496,22 +4499,22 @@
         <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2">
         <v>47500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="162">
   <si>
     <t>name</t>
   </si>
@@ -353,46 +353,55 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>安泰商業銀行</t>
   </si>
   <si>
+    <t>華泰商業銀行</t>
+  </si>
+  <si>
+    <t>中國銀行</t>
+  </si>
+  <si>
+    <t>美商美國銀行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行敦南分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>華泰商業銀行</t>
-  </si>
-  <si>
-    <t>中國銀行</t>
-  </si>
-  <si>
-    <t>美商美國銀行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>人民幣</t>
   </si>
   <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>世紀民生科技股份有限公司</t>
@@ -3579,13 +3588,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
@@ -3596,162 +3605,318 @@
         <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>6098718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>6098718</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>29425</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>59831</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F6" s="2">
-        <v>1751000</v>
-      </c>
-      <c r="G6" s="2">
         <v>7879500</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F7" s="2">
-        <v>1042106</v>
-      </c>
-      <c r="G7" s="2">
         <v>30533705.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1593775</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3775,13 +3940,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3813,7 +3978,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
@@ -3825,13 +3990,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2">
         <v>126170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>84</v>
@@ -3857,7 +4022,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>62</v>
@@ -3869,13 +4034,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2">
         <v>674630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>84</v>
@@ -3901,7 +4066,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>62</v>
@@ -3913,13 +4078,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G4" s="2">
         <v>630750</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>84</v>
@@ -3945,7 +4110,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -3957,13 +4122,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G5" s="2">
         <v>446610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>84</v>
@@ -3989,7 +4154,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
@@ -4001,13 +4166,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G6" s="2">
         <v>127230</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>84</v>
@@ -4033,7 +4198,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>62</v>
@@ -4045,13 +4210,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>84</v>
@@ -4077,7 +4242,7 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
@@ -4089,13 +4254,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G8" s="2">
         <v>5000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>84</v>
@@ -4121,7 +4286,7 @@
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>62</v>
@@ -4133,13 +4298,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G9" s="2">
         <v>267560</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>84</v>
@@ -4165,7 +4330,7 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>62</v>
@@ -4177,13 +4342,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" s="2">
         <v>300000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>84</v>
@@ -4209,7 +4374,7 @@
         <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>62</v>
@@ -4221,13 +4386,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G11" s="2">
         <v>14990</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>84</v>
@@ -4263,13 +4428,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1">
         <v>150000</v>
@@ -4278,7 +4443,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1">
         <v>1500000</v>
@@ -4289,13 +4454,13 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2">
         <v>150000</v>
@@ -4304,7 +4469,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H2" s="2">
         <v>1500000</v>
@@ -4325,14 +4490,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4342,16 +4507,16 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4359,22 +4524,22 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4392,16 +4557,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4409,16 +4574,16 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4426,16 +4591,16 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4453,22 +4618,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1">
         <v>20000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4476,22 +4641,22 @@
         <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2">
         <v>20000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4499,22 +4664,22 @@
         <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
         <v>47500000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
@@ -12,16 +12,15 @@
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
-    <sheet name="債權" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債權" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="155">
   <si>
     <t>name</t>
   </si>
@@ -440,37 +439,16 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>聯博全球高收益債券基金A股</t>
   </si>
   <si>
     <t>8160371安泰商業銀行民權分行</t>
   </si>
   <si>
-    <t>(九）珠寶古董字晝及事</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>fund</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -4420,47 +4398,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1">
-        <v>150000</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2">
         <v>150000</v>
@@ -4473,6 +4472,27 @@
       </c>
       <c r="H2" s="2">
         <v>1500000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4481,6 +4501,67 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -4490,150 +4571,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>129</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>130</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>136</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E1" s="1">
         <v>20000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4641,22 +4594,22 @@
         <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2">
         <v>20000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4664,22 +4617,22 @@
         <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2">
         <v>47500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
+++ b/legislator/property/output/normal/羅淑蕾_2011-11-21_財產申報表_tmpa0031.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="158">
   <si>
     <t>name</t>
   </si>
@@ -451,40 +451,49 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
     <t>6年期步步高升30萬</t>
   </si>
   <si>
-    <t>保單號碼：63287446.保障期間：9568至10168.保額為30萬.台南歸仁郵局.</t>
-  </si>
-  <si>
     <t>6年期步步高升15萬</t>
   </si>
   <si>
-    <t>保單號碼：63287467.保障期間：9568至10168.保額為15萬.台南歸仁郵局</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>設定抵押</t>
   </si>
   <si>
+    <t>—般借款</t>
+  </si>
+  <si>
     <t>王國道臺北市文山區興隆路</t>
   </si>
   <si>
+    <t>啟富建設有限公司臺北市中山區建國北路2段92號9樓</t>
+  </si>
+  <si>
     <t>93年12月01日</t>
   </si>
   <si>
+    <t>96年05月01日</t>
+  </si>
+  <si>
     <t>借款</t>
   </si>
   <si>
-    <t>—般借款</t>
-  </si>
-  <si>
-    <t>啟富建設有限公司臺北市中山區建國北路2段92號9樓</t>
-  </si>
-  <si>
-    <t>96年05月01日</t>
+    <t>claim</t>
   </si>
 </sst>
 </file>
@@ -4502,49 +4511,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>146</v>
@@ -4554,6 +4599,24 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>147</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4563,61 +4626,103 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="1">
-        <v>20000000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>20000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>156</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>62</v>
@@ -4629,10 +4734,31 @@
         <v>47500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1638</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="2">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
